--- a/RACE CAPSTONE PROJECT1/TradingAnalytics_Capstone1_Metrics .xlsx
+++ b/RACE CAPSTONE PROJECT1/TradingAnalytics_Capstone1_Metrics .xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553CFFA5-8C03-469C-93EE-E3F65F22EBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMA_EMA_T_test" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
   <si>
     <t>SMA20</t>
   </si>
@@ -169,9 +170,6 @@
   </si>
   <si>
     <t>ROOT MEAN SQUARE ERROR (MSE) FOR TEST DATA</t>
-  </si>
-  <si>
-    <t>Mean Absolute Percentage Error FOR TEST DATA</t>
   </si>
   <si>
     <t xml:space="preserve">MAPE FOR    TEST DATA </t>
@@ -373,16 +371,22 @@
   </si>
   <si>
     <t xml:space="preserve">Lasso regression Model Using Cross Validation </t>
+  </si>
+  <si>
+    <t>Median Absolute  Error FOR TEST DATA</t>
+  </si>
+  <si>
+    <t>Median Absolute Error FOR TEST DATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +568,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -610,7 +622,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,9 +654,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,6 +706,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -851,19 +899,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -883,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.5" customHeight="1">
+    <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -903,7 +951,7 @@
         <v>77.666603737964806</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48.75" customHeight="1">
+    <row r="3" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -923,7 +971,7 @@
         <v>65.658665658665598</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40.5" customHeight="1">
+    <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -943,7 +991,7 @@
         <v>60.881907645722897</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34.5" customHeight="1">
+    <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -963,7 +1011,7 @@
         <v>76.968095148197094</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.5" customHeight="1">
+    <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -983,7 +1031,7 @@
         <v>65.885465885465806</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34.5" customHeight="1">
+    <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1010,19 +1058,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.5" customHeight="1">
+    <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1062,7 +1110,7 @@
         <v>53.766333589546498</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48.75" customHeight="1">
+    <row r="3" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1130,7 @@
         <v>53.957680250783604</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.5" customHeight="1">
+    <row r="4" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1150,7 @@
         <v>54.362029208301301</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34.5" customHeight="1">
+    <row r="5" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1129,20 +1177,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1162,7 +1210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.5" customHeight="1">
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -1182,7 +1230,7 @@
         <v>84.919886899151706</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" customHeight="1">
+    <row r="3" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1202,7 +1250,7 @@
         <v>74.081055607916994</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="48.75" customHeight="1">
+    <row r="4" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1229,21 +1277,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="38.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="38.25" customHeight="1">
+    <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="38.25" customHeight="1">
+    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -1265,7 +1313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="38.25" customHeight="1">
+    <row r="3" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1276,7 +1324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="38.25" customHeight="1">
+    <row r="4" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1287,7 +1335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="38.25" customHeight="1">
+    <row r="5" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
@@ -1298,7 +1346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="38.25" customHeight="1">
+    <row r="6" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +1357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38.25" customHeight="1">
+    <row r="7" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="38.25" customHeight="1">
+    <row r="8" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="38.25" customHeight="1">
+    <row r="9" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1390,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="38.25" customHeight="1">
+    <row r="10" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="38.25" customHeight="1">
+    <row r="11" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1364,7 +1412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="38.25" customHeight="1">
+    <row r="12" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="38.25" customHeight="1">
+    <row r="13" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1386,7 +1434,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="38.25" customHeight="1">
+    <row r="14" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1397,7 +1445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="38.25" customHeight="1">
+    <row r="15" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +1456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="38.25" customHeight="1">
+    <row r="16" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1426,14 +1474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
@@ -1443,7 +1491,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="58.5" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
@@ -1460,18 +1508,18 @@
         <v>48</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5">
         <v>84.212000000000003</v>
@@ -1486,15 +1534,15 @@
         <v>96.061999999999998</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5">
         <v>112.245</v>
@@ -1512,12 +1560,12 @@
         <v>9.4169999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48.75" customHeight="1">
+    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5">
         <v>183.75700000000001</v>
@@ -1535,12 +1583,12 @@
         <v>16.294</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48.75" customHeight="1">
+    <row r="5" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5">
         <v>184.72900000000001</v>
@@ -1555,15 +1603,15 @@
         <v>172.64099999999999</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="48.75" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5">
         <v>185.643</v>
@@ -1578,7 +1626,7 @@
         <v>173.92500000000001</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1588,14 +1636,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
@@ -1605,7 +1653,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="58.5" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
@@ -1622,18 +1670,18 @@
         <v>48</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="48.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="5">
         <v>2.0339999999999998</v>
@@ -1651,12 +1699,12 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="54" customHeight="1">
+    <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="5">
         <v>7.5549999999999997</v>
@@ -1674,12 +1722,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48.75" customHeight="1">
+    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="5">
         <v>7.5540000000000003</v>
@@ -1697,12 +1745,12 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48.75" customHeight="1">
+    <row r="5" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="5">
         <v>5.423</v>
@@ -1717,7 +1765,7 @@
         <v>3.1629999999999998</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1727,14 +1775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
@@ -1744,7 +1792,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="58.5" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
@@ -1761,18 +1809,18 @@
         <v>48</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="48.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="5">
         <v>3.26</v>
@@ -1790,12 +1838,12 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="54" customHeight="1">
+    <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5">
         <v>3.218</v>
@@ -1813,12 +1861,12 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48.75" customHeight="1">
+    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5">
         <v>2.4470000000000001</v>
@@ -1836,12 +1884,12 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48.75" customHeight="1">
+    <row r="5" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="5">
         <v>3.2530000000000001</v>
@@ -1866,14 +1914,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
@@ -1883,7 +1931,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="58.5" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
@@ -1900,18 +1948,18 @@
         <v>48</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="48.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="5">
         <v>4.3659999999999997</v>
@@ -1926,15 +1974,15 @@
         <v>3.597</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="61.5" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="5">
         <v>7.7530000000000001</v>
@@ -1952,12 +2000,12 @@
         <v>33.470999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48.75" customHeight="1">
+    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="5">
         <v>9.7050000000000001</v>
@@ -1975,12 +2023,12 @@
         <v>33.401000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1">
+    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="5">
         <v>2.59</v>
@@ -2005,14 +2053,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="38.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" style="2" customWidth="1"/>
@@ -2020,7 +2068,7 @@
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" customHeight="1">
+    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -2028,97 +2076,97 @@
         <v>11</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="38.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>99</v>
-      </c>
       <c r="D7" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38.25" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
@@ -2126,94 +2174,94 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="16" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A11" s="3" t="s">
+    <row r="14" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="D14" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
